--- a/Example.xlsx
+++ b/Example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Windows\ServiceProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_cb7\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="83" documentId="8_{9B3A6766-299D-4165-B24B-D96F491643DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{63CC3165-5D87-487F-8F21-4CC9319BFE5F}"/>
+  <xr:revisionPtr revIDLastSave="93" documentId="8_{9B3A6766-299D-4165-B24B-D96F491643DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5A01163C-A165-4B8B-A409-0082E2EDBEC0}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="15480" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,24 +31,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="7">
-  <si>
-    <t>内容（图片名称.png、输入内容、等待时长/秒）</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="9">
   <si>
     <t>重复次数(-1代表一直重复)</t>
   </si>
   <si>
-    <t>额外图片（名称.png）</t>
-  </si>
-  <si>
     <t>test.png</t>
   </si>
   <si>
     <t>this is a test</t>
   </si>
   <si>
-    <t>指令类型（1 单击  2 双击  3 右键  4 输入  5 等待  6滚轮 ）</t>
+    <t>内容（图片名称.png、输入内容、等待时长/秒、截图范围）</t>
+  </si>
+  <si>
+    <t>指令类型（1 单击  2 双击  3 右键  4 输入  5 等待  6滚轮  7移动 8截图</t>
+  </si>
+  <si>
+    <t>0,0,200,300</t>
   </si>
 </sst>
 </file>
@@ -362,51 +362,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="53.703125" customWidth="1"/>
-    <col min="2" max="2" width="45.29296875" customWidth="1"/>
+    <col min="1" max="1" width="60.43359375" customWidth="1"/>
+    <col min="2" max="2" width="53.83203125" customWidth="1"/>
     <col min="3" max="3" width="27.17578125" customWidth="1"/>
     <col min="4" max="4" width="20.31640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>5</v>
       </c>
@@ -414,12 +411,28 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>6</v>
       </c>
       <c r="B5">
         <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
